--- a/Teams/BUyCar.xlsx
+++ b/Teams/BUyCar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD2F57-BEF4-E24E-83A2-C01BBC9F84B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090F1BA-A483-824C-91FD-690D58F9FA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="1740" windowWidth="26920" windowHeight="16940" xr2:uid="{AD438001-1B74-584D-9C73-A6D06FD95B5B}"/>
+    <workbookView xWindow="31460" yWindow="1220" windowWidth="26920" windowHeight="16940" xr2:uid="{AD438001-1B74-584D-9C73-A6D06FD95B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Compounder</t>
   </si>
@@ -139,9 +139,6 @@
     <t>CalcTerm</t>
   </si>
   <si>
-    <t>_repairs</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -161,13 +158,43 @@
   </si>
   <si>
     <t>override Calculate Balance</t>
+  </si>
+  <si>
+    <t>CalcPrice</t>
+  </si>
+  <si>
+    <t>override CalcPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takes information from the </t>
+  </si>
+  <si>
+    <t>classes and calculates then passes them back to the other classes. It also displays comparisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to create loans and </t>
+  </si>
+  <si>
+    <t>savings accounts because they all use compounding interest. Loans also have fees not present with savings accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes 3 different types of </t>
+  </si>
+  <si>
+    <t>vehicles plus the user's current vehicle if required. In New Zealand, environmentally friendly cars attacta clean car discount, while vehicals with high emissions attract a tax. Deisel fuel vehicals also attract an extra road user charge</t>
+  </si>
+  <si>
+    <t>_is diesel</t>
+  </si>
+  <si>
+    <t>_repairsDue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,6 +217,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -207,18 +257,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DEDD65-3B8A-474A-B236-046DD1637948}">
-  <dimension ref="B1:P19"/>
+  <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -547,9 +674,9 @@
     <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="2" style="1" customWidth="1"/>
@@ -562,183 +689,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="F10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="N16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
-        <v>41</v>
+      <c r="F19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="22" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="200" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Teams/BUyCar.xlsx
+++ b/Teams/BUyCar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090F1BA-A483-824C-91FD-690D58F9FA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC324EF9-8FBB-734B-9758-62B0AED11151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31460" yWindow="1220" windowWidth="26920" windowHeight="16940" xr2:uid="{AD438001-1B74-584D-9C73-A6D06FD95B5B}"/>
+    <workbookView minimized="1" xWindow="1740" yWindow="580" windowWidth="26920" windowHeight="16940" xr2:uid="{AD438001-1B74-584D-9C73-A6D06FD95B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Compounder</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>_repairsDue</t>
+  </si>
+  <si>
+    <t>_openBaal</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
   <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -715,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>49</v>
@@ -761,7 +764,9 @@
       <c r="F7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -854,7 +859,9 @@
       <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
@@ -864,9 +871,7 @@
       <c r="J16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L16" s="6"/>
       <c r="N16" s="6" t="s">
         <v>19</v>
       </c>
@@ -876,20 +881,18 @@
     </row>
     <row r="17" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="J17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="N17" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="N17" s="6"/>
       <c r="P17" s="6" t="s">
         <v>34</v>
       </c>

--- a/Teams/BUyCar.xlsx
+++ b/Teams/BUyCar.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC324EF9-8FBB-734B-9758-62B0AED11151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6965D4F2-5F65-6F4B-9B4B-1937CA2B9BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1740" yWindow="580" windowWidth="26920" windowHeight="16940" xr2:uid="{AD438001-1B74-584D-9C73-A6D06FD95B5B}"/>
+    <workbookView minimized="1" xWindow="1740" yWindow="580" windowWidth="26920" windowHeight="16940" activeTab="1" xr2:uid="{AD438001-1B74-584D-9C73-A6D06FD95B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="154">
   <si>
     <t>Compounder</t>
   </si>
@@ -191,13 +192,7712 @@
   </si>
   <si>
     <t>_openBaal</t>
+  </si>
+  <si>
+    <r>
+      <t>using</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_rateSave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0195</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_rateloan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.129</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_feeloan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>249</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_termMonths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_cleanCarDisc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_uteTax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_govDiscFees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carDiscount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_saveAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_repairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_tradein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_futureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_choice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>MenuBuySave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Please enter the following details:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>//get loan / save details</t>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"How much do you have saved already? "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"How much do intend to save every month? "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_saveAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Do you want to use standard interest rates and fees or enter your own? "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"1. Standard"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"2. Enter my own interest rates and fees"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_choice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_choice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"What is the interest rate on the loan "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_rateloan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>())/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"what is the Loan setup fee? "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_feeloan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"How many months is the Loan for? "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_termMonths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <t>//get details on current car and create current car object</t>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"what EXTRA repair or other costs do you expect if you keep your current car That you WON'T have with a new car? (Yearly Amount): "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_repairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <t>//get details on new car and create object</t>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"What type of car are you considering? "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"1.Electric / Hybrid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"2. Small / Medium"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"3. Large"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"What is the standard price of this car?"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"What is the discount available?"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_carDiscount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"What is the tradein vaue you will recieve?"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_tradein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>double.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vehicle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>enviro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>EnviroCar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carDiscount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_tradein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_cleanCarDisc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_carCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>enviro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>GetCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_futureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>enviro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>GetFutureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_govDiscFees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_cleanCarDisc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <r>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vehicle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>small</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>SmallMedCar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carDiscount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_tradein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_carCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>small</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>GetCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_futureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>small</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>GetFutureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vehicle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>large</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LargeCar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carDiscount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_tradein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_carCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>large</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>GetCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_futureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>large</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>GetFutureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_govDiscFees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_uteTax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Compounder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>save1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_rateSave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_saveAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_futureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_repairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Compounder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>loan1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>CarLoan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_rateloan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_feeloan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_termMonths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DisplayCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>loan1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisplayTotalCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>save1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisplayTotalCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>MenuElecPetrol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"How will you finance your purchase? "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"1. Savings"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"2. loan Loan"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_finance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReadLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_finance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Compounder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>save2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_rateSave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_saveAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_futureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_repairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_finance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Compounder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>loan2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>CarLoan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_rateloan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_feeloan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_termMonths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"1. Current Car"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"2. New small / medium fossil fuel car"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"3. New large fossil fuel car"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"What are you comparing the new electric / hybrid car to? "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>MenuCompareAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Compounder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_rateSave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_saveAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_futureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_repairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Compounder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>loan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>CarLoan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_rateloan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_feeloan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_termMonths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>//Vehicle current = new CurrentCar(1);</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisplayCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ForegroundColor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ConsoleColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>DarkYellow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Lets compare borrowing cost to saving cost."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ForegroundColor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ConsoleColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yellow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>" Loan Amount Saving Goal"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ForegroundColor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ConsoleColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gray</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(string.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Car Price: {0} {0}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(string.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Less:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(string.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Deposit: {0} {0}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(string.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Sale discount: {0} 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carDiscount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(string.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Tradein: {0} {1}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_tradein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_tradein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(string.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Gov disc/fees: {0} {0}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_govDiscFees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(string.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>" ------------------"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>WriteLine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(string.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Amount needed: {0} {1}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_carCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFCB6B"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_futureCarCost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA6ACCD"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>FinanceQuestions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,6 +7942,56 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFA6ACCD"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF89DDFF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFCB6B"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFF78C6C"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF82AAFF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC3E88D"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF464B5D"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF89DDFF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,7 +8066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,6 +8100,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,7 +8421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DEDD65-3B8A-474A-B236-046DD1637948}">
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -976,4 +8731,694 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF72AB26-1B30-7C43-9811-1F3E628010C1}">
+  <dimension ref="A1:A166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection sqref="A1:A166"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A133" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A135" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A136" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A137" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A138" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A143" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A144" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A145" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A146" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A147" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A148" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A149" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A150" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A151" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A152" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A153" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A154" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A155" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A156" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A157" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A158" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A160" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>